--- a/biology/Zoologie/Paulus_Edward_Pieris_Deraniyagala/Paulus_Edward_Pieris_Deraniyagala.xlsx
+++ b/biology/Zoologie/Paulus_Edward_Pieris_Deraniyagala/Paulus_Edward_Pieris_Deraniyagala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulus Edward Pieris Deraniyagala est un anthropologue, un artiste et un zoologiste srilankais, né le 8 mai 1900 à Colombo et mort le 1er décembre 1973 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est l’un des plus renommés juristes du pays. Il est très jeune passionné par les animaux et élève un cobra dans sa chambre en guise d’animal de compagnie. À huit ans, sa famille s’installe dans la ville côtière de Kalutara où son père est juge de district. Il découvre alors les tortues marines et les crocodiles qui l’orientent définitivement vers l’herpétologie. Il retourne à Colombo pour ses études et part en 1919 à Cambridge. Il y obtient un Bachelor of Arts (1922) au Trinity College puis un Master of Arts en 1923. Il y étudie notamment la zoologie mais consacre l’essentiel de son temps au sport et devient champion de boxe.
 Il passe un an à Harvard et obtient un Master of Arts en 1924. Il séjourne également au Laboratoire de biologie marine (MBL) de Woods Hole. Il étudie la physiologie des grenouilles dans le laboratoire de George Howard Parker (1864-1955) et subit aussi l’influence de Thomas Barbour (1884-1946) du Museum of Comparative Zoology.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)
  Portail de l’histoire de la zoologie et de la botanique   Portail de la zoologie   Portail de l’herpétologie   Portail du Sri Lanka                  </t>
